--- a/ExcelNameList/StudNameList.xlsx
+++ b/ExcelNameList/StudNameList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="746">
   <si>
     <t>Aayushi Singh</t>
   </si>
@@ -2779,7 +2779,7 @@
   <dimension ref="A1:E2411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2812,8 +2812,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f>1+B1</f>
-        <v>18100002</v>
+        <v>123455</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2832,7 +2831,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
-        <v>18100003</v>
+        <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -2851,7 +2850,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>18100004</v>
+        <v>123457</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -2870,7 +2869,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>18100005</v>
+        <v>123458</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -2889,7 +2888,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>18100006</v>
+        <v>123459</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -2908,7 +2907,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>18100007</v>
+        <v>123460</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -2927,7 +2926,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>18100008</v>
+        <v>123461</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -2946,7 +2945,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>18100009</v>
+        <v>123462</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -2965,7 +2964,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>18100010</v>
+        <v>123463</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>18100011</v>
+        <v>123464</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -3003,7 +3002,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>18100012</v>
+        <v>123465</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -3022,7 +3021,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>18100013</v>
+        <v>123466</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -3041,7 +3040,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>18100014</v>
+        <v>123467</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -3060,7 +3059,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>18100015</v>
+        <v>123468</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -3079,7 +3078,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>18100016</v>
+        <v>123469</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -3098,7 +3097,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>18100017</v>
+        <v>123470</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -3117,7 +3116,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>18100018</v>
+        <v>123471</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3136,7 +3135,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="1"/>
-        <v>18100019</v>
+        <v>123472</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
@@ -3155,7 +3154,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="1"/>
-        <v>18100020</v>
+        <v>123473</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -3174,7 +3173,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="1"/>
-        <v>18100021</v>
+        <v>123474</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -3193,7 +3192,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="1"/>
-        <v>18100022</v>
+        <v>123475</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -3212,7 +3211,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="1"/>
-        <v>18100023</v>
+        <v>123476</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
@@ -3231,7 +3230,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="1"/>
-        <v>18100024</v>
+        <v>123477</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -3250,7 +3249,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="1"/>
-        <v>18100025</v>
+        <v>123478</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>24</v>
@@ -3269,7 +3268,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="1"/>
-        <v>18100026</v>
+        <v>123479</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>25</v>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="1"/>
-        <v>18100027</v>
+        <v>123480</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -3307,7 +3306,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="1"/>
-        <v>18100028</v>
+        <v>123481</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -3326,7 +3325,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="1"/>
-        <v>18100029</v>
+        <v>123482</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -3345,7 +3344,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="1"/>
-        <v>18100030</v>
+        <v>123483</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -3364,7 +3363,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="1"/>
-        <v>18100031</v>
+        <v>123484</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
@@ -3383,7 +3382,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="1"/>
-        <v>18100032</v>
+        <v>123485</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>31</v>
@@ -3402,7 +3401,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="1"/>
-        <v>18100033</v>
+        <v>123486</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>32</v>
@@ -3421,7 +3420,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="1"/>
-        <v>18100034</v>
+        <v>123487</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
@@ -3440,7 +3439,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="2"/>
-        <v>18100035</v>
+        <v>123488</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>34</v>
@@ -3459,7 +3458,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="2"/>
-        <v>18100036</v>
+        <v>123489</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
@@ -3478,7 +3477,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="2"/>
-        <v>18100037</v>
+        <v>123490</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>36</v>
@@ -3497,7 +3496,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="2"/>
-        <v>18100038</v>
+        <v>123491</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>37</v>
@@ -3516,7 +3515,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="2"/>
-        <v>18100039</v>
+        <v>123492</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>38</v>
@@ -3535,7 +3534,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="2"/>
-        <v>18100040</v>
+        <v>123493</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -3554,7 +3553,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="2"/>
-        <v>18100041</v>
+        <v>123494</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -3573,7 +3572,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="2"/>
-        <v>18100042</v>
+        <v>123495</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>41</v>
@@ -3592,7 +3591,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="2"/>
-        <v>18100043</v>
+        <v>123496</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
@@ -3611,7 +3610,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="2"/>
-        <v>18100044</v>
+        <v>123497</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
@@ -3630,7 +3629,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="2"/>
-        <v>18100045</v>
+        <v>123498</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>44</v>
@@ -3649,7 +3648,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="2"/>
-        <v>18100046</v>
+        <v>123499</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
@@ -3668,7 +3667,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="2"/>
-        <v>18100047</v>
+        <v>123500</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>46</v>
@@ -3687,7 +3686,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="2"/>
-        <v>18100048</v>
+        <v>123501</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>47</v>
@@ -3706,7 +3705,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="2"/>
-        <v>18100049</v>
+        <v>123502</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>48</v>
@@ -3725,7 +3724,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="2"/>
-        <v>18100050</v>
+        <v>123503</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
@@ -3744,7 +3743,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="3"/>
-        <v>18100051</v>
+        <v>123504</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
@@ -3763,7 +3762,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="3"/>
-        <v>18100052</v>
+        <v>123505</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>51</v>
@@ -3782,7 +3781,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="3"/>
-        <v>18100053</v>
+        <v>123506</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
@@ -3801,7 +3800,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="3"/>
-        <v>18100054</v>
+        <v>123507</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>53</v>
@@ -3820,7 +3819,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="3"/>
-        <v>18100055</v>
+        <v>123508</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
@@ -3839,7 +3838,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="3"/>
-        <v>18100056</v>
+        <v>123509</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>55</v>
@@ -3858,7 +3857,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="3"/>
-        <v>18100057</v>
+        <v>123510</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>56</v>
@@ -3877,7 +3876,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="3"/>
-        <v>18100058</v>
+        <v>123511</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>57</v>
@@ -3896,7 +3895,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="3"/>
-        <v>18100059</v>
+        <v>123512</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>58</v>
@@ -3915,7 +3914,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="3"/>
-        <v>18100060</v>
+        <v>123513</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>59</v>
@@ -3934,7 +3933,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="3"/>
-        <v>18100061</v>
+        <v>123514</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>60</v>
@@ -3953,7 +3952,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="3"/>
-        <v>18100062</v>
+        <v>123515</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>61</v>
@@ -3972,7 +3971,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="3"/>
-        <v>18100063</v>
+        <v>123516</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>62</v>
@@ -3991,7 +3990,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="3"/>
-        <v>18100064</v>
+        <v>123517</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>63</v>
@@ -4010,7 +4009,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="3"/>
-        <v>18100065</v>
+        <v>123518</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>64</v>
@@ -4029,7 +4028,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="3"/>
-        <v>18100066</v>
+        <v>123519</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>65</v>
@@ -4048,7 +4047,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="4"/>
-        <v>18100067</v>
+        <v>123520</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>66</v>
@@ -4067,7 +4066,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" si="4"/>
-        <v>18100068</v>
+        <v>123521</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>67</v>
@@ -4086,7 +4085,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="4"/>
-        <v>18100069</v>
+        <v>123522</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>68</v>
@@ -4105,7 +4104,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="4"/>
-        <v>18100070</v>
+        <v>123523</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>69</v>
@@ -4124,7 +4123,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="4"/>
-        <v>18100071</v>
+        <v>123524</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>70</v>
@@ -4143,7 +4142,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="4"/>
-        <v>18100072</v>
+        <v>123525</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>71</v>
@@ -4162,7 +4161,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="4"/>
-        <v>18100073</v>
+        <v>123526</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>72</v>
@@ -4181,7 +4180,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="4"/>
-        <v>18100074</v>
+        <v>123527</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>73</v>
@@ -4200,7 +4199,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="4"/>
-        <v>18100075</v>
+        <v>123528</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>74</v>
@@ -4219,7 +4218,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="4"/>
-        <v>18100076</v>
+        <v>123529</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>75</v>
@@ -4238,7 +4237,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="4"/>
-        <v>18100077</v>
+        <v>123530</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>76</v>
@@ -4257,7 +4256,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="4"/>
-        <v>18100078</v>
+        <v>123531</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>77</v>
@@ -4276,7 +4275,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="4"/>
-        <v>18100079</v>
+        <v>123532</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>78</v>
@@ -4295,7 +4294,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="4"/>
-        <v>18100080</v>
+        <v>123533</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>79</v>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="4"/>
-        <v>18100081</v>
+        <v>123534</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>80</v>
@@ -4333,7 +4332,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="4"/>
-        <v>18100082</v>
+        <v>123535</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>81</v>
@@ -4352,7 +4351,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="5"/>
-        <v>18100083</v>
+        <v>123536</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>82</v>
@@ -4371,7 +4370,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="5"/>
-        <v>18100084</v>
+        <v>123537</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>83</v>
@@ -4390,7 +4389,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="5"/>
-        <v>18100085</v>
+        <v>123538</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>84</v>
@@ -4409,7 +4408,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="5"/>
-        <v>18100086</v>
+        <v>123539</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>85</v>
@@ -4428,7 +4427,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="5"/>
-        <v>18100087</v>
+        <v>123540</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>86</v>
@@ -4447,7 +4446,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="5"/>
-        <v>18100088</v>
+        <v>123541</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>87</v>
@@ -4466,7 +4465,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="5"/>
-        <v>18100089</v>
+        <v>123542</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>88</v>
@@ -4485,7 +4484,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="5"/>
-        <v>18100090</v>
+        <v>123543</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>89</v>
@@ -4504,7 +4503,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="5"/>
-        <v>18100091</v>
+        <v>123544</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>90</v>
@@ -4523,7 +4522,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="5"/>
-        <v>18100092</v>
+        <v>123545</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>91</v>
@@ -4542,7 +4541,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="5"/>
-        <v>18100093</v>
+        <v>123546</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>92</v>
@@ -4561,7 +4560,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="5"/>
-        <v>18100094</v>
+        <v>123547</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>93</v>
@@ -4580,7 +4579,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="5"/>
-        <v>18100095</v>
+        <v>123548</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>94</v>
@@ -4599,7 +4598,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" si="5"/>
-        <v>18100096</v>
+        <v>123549</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>95</v>
@@ -4618,7 +4617,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" si="5"/>
-        <v>18100097</v>
+        <v>123550</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>96</v>
@@ -4637,7 +4636,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" si="5"/>
-        <v>18100098</v>
+        <v>123551</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>97</v>
@@ -4656,7 +4655,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" si="6"/>
-        <v>18100099</v>
+        <v>123552</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>98</v>
@@ -4675,7 +4674,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" si="6"/>
-        <v>18100100</v>
+        <v>123553</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>99</v>
@@ -4694,7 +4693,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" si="6"/>
-        <v>18100101</v>
+        <v>123554</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>100</v>
@@ -4713,7 +4712,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" si="6"/>
-        <v>18100102</v>
+        <v>123555</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>101</v>
@@ -4732,7 +4731,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" si="6"/>
-        <v>18100103</v>
+        <v>123556</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>102</v>
@@ -4751,7 +4750,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" si="6"/>
-        <v>18100104</v>
+        <v>123557</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>103</v>
@@ -4770,7 +4769,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" si="6"/>
-        <v>18100105</v>
+        <v>123558</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>104</v>
@@ -4789,7 +4788,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" si="6"/>
-        <v>18100106</v>
+        <v>123559</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>105</v>
@@ -4808,7 +4807,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" si="6"/>
-        <v>18100107</v>
+        <v>123560</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>106</v>
@@ -4827,7 +4826,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" si="6"/>
-        <v>18100108</v>
+        <v>123561</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>107</v>
@@ -4846,7 +4845,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" si="6"/>
-        <v>18100109</v>
+        <v>123562</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>108</v>
@@ -4865,7 +4864,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" si="6"/>
-        <v>18100110</v>
+        <v>123563</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>109</v>
@@ -4884,7 +4883,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" si="6"/>
-        <v>18100111</v>
+        <v>123564</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>110</v>
@@ -4903,7 +4902,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" si="6"/>
-        <v>18100112</v>
+        <v>123565</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>111</v>
@@ -4922,7 +4921,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" si="6"/>
-        <v>18100113</v>
+        <v>123566</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>112</v>
@@ -4941,7 +4940,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" si="6"/>
-        <v>18100114</v>
+        <v>123567</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>113</v>
@@ -4960,7 +4959,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" si="7"/>
-        <v>18100115</v>
+        <v>123568</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>114</v>
@@ -4979,7 +4978,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" si="7"/>
-        <v>18100116</v>
+        <v>123569</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>115</v>
@@ -4998,7 +4997,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" si="7"/>
-        <v>18100117</v>
+        <v>123570</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>116</v>
@@ -5017,7 +5016,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" si="7"/>
-        <v>18100118</v>
+        <v>123571</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>117</v>
@@ -5036,7 +5035,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" si="7"/>
-        <v>18100119</v>
+        <v>123572</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>118</v>
@@ -5055,7 +5054,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" si="7"/>
-        <v>18100120</v>
+        <v>123573</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>119</v>
@@ -5074,7 +5073,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" si="7"/>
-        <v>18100121</v>
+        <v>123574</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>120</v>
@@ -5093,7 +5092,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" si="7"/>
-        <v>18100122</v>
+        <v>123575</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>121</v>
@@ -5112,7 +5111,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" si="7"/>
-        <v>18100123</v>
+        <v>123576</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>122</v>
@@ -5131,7 +5130,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" si="7"/>
-        <v>18100124</v>
+        <v>123577</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>123</v>
@@ -5150,7 +5149,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" si="7"/>
-        <v>18100125</v>
+        <v>123578</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>124</v>
@@ -5169,7 +5168,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" si="7"/>
-        <v>18100126</v>
+        <v>123579</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>125</v>
@@ -5188,7 +5187,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" si="7"/>
-        <v>18100127</v>
+        <v>123580</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>126</v>
@@ -5207,7 +5206,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" si="7"/>
-        <v>18100128</v>
+        <v>123581</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>127</v>
@@ -5226,7 +5225,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" si="7"/>
-        <v>18100129</v>
+        <v>123582</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>128</v>
@@ -5245,7 +5244,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" si="7"/>
-        <v>18100130</v>
+        <v>123583</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>129</v>
@@ -5264,7 +5263,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" si="8"/>
-        <v>18100131</v>
+        <v>123584</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>130</v>
@@ -5283,7 +5282,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" si="8"/>
-        <v>18100132</v>
+        <v>123585</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>131</v>
@@ -5302,7 +5301,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" si="8"/>
-        <v>18100133</v>
+        <v>123586</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>132</v>
@@ -5321,7 +5320,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" si="8"/>
-        <v>18100134</v>
+        <v>123587</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>133</v>
@@ -5340,7 +5339,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" si="8"/>
-        <v>18100135</v>
+        <v>123588</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>134</v>
@@ -5359,7 +5358,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" si="8"/>
-        <v>18100136</v>
+        <v>123589</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>135</v>
@@ -5378,7 +5377,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" si="8"/>
-        <v>18100137</v>
+        <v>123590</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>136</v>
@@ -5397,7 +5396,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" si="8"/>
-        <v>18100138</v>
+        <v>123591</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>137</v>
@@ -5416,7 +5415,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" si="8"/>
-        <v>18100139</v>
+        <v>123592</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>138</v>
@@ -5435,7 +5434,7 @@
       </c>
       <c r="B140" s="2">
         <f t="shared" si="8"/>
-        <v>18100140</v>
+        <v>123593</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>139</v>
@@ -5454,7 +5453,7 @@
       </c>
       <c r="B141" s="2">
         <f t="shared" si="8"/>
-        <v>18100141</v>
+        <v>123594</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>140</v>
@@ -5473,7 +5472,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" si="8"/>
-        <v>18100142</v>
+        <v>123595</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>141</v>
@@ -5492,7 +5491,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" si="8"/>
-        <v>18100143</v>
+        <v>123596</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>142</v>
@@ -5511,7 +5510,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" si="8"/>
-        <v>18100144</v>
+        <v>123597</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>143</v>
@@ -5530,7 +5529,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" si="8"/>
-        <v>18100145</v>
+        <v>123598</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>144</v>
@@ -5549,7 +5548,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" si="8"/>
-        <v>18100146</v>
+        <v>123599</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>145</v>
@@ -5568,7 +5567,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" si="9"/>
-        <v>18100147</v>
+        <v>123600</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>146</v>
@@ -5587,7 +5586,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" si="9"/>
-        <v>18100148</v>
+        <v>123601</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>147</v>
@@ -5606,7 +5605,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" si="9"/>
-        <v>18100149</v>
+        <v>123602</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>148</v>
@@ -5625,7 +5624,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" si="9"/>
-        <v>18100150</v>
+        <v>123603</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>149</v>
